--- a/excel/inventories_raw.xlsx
+++ b/excel/inventories_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TNK\Work\CPMCL\Codespace\dmc-scripts\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F8870A-BCEB-47F7-8ED9-88A956DB812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68FDB8F-72E2-4589-8E8E-55811E71ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="88">
   <si>
     <t>TÊN NGUYÊN LIỆU</t>
   </si>
@@ -153,9 +153,6 @@
     <t>ÉP THƠM (850ML/CHAI)</t>
   </si>
   <si>
-    <t>SYRUP ME (CHAI 1,1 LÍT)</t>
-  </si>
-  <si>
     <t>SYRUP TẮC XÍ MUỘI</t>
   </si>
   <si>
@@ -279,7 +276,28 @@
     <t>TRÀ XANH LÀI ( 500GRAM/BỊCH)</t>
   </si>
   <si>
-    <t>NƯỚC CỐT CHANH ( 640ML/CHAI )</t>
+    <t>SYRUP ME (1400GRAM/CHAI)</t>
+  </si>
+  <si>
+    <t>1,1 LÍT/CHAI</t>
+  </si>
+  <si>
+    <t>650ML/CHAI</t>
+  </si>
+  <si>
+    <t>NƯỚC CỐT TẮC (669.5GRAM/CHAI)</t>
+  </si>
+  <si>
+    <t>640ML</t>
+  </si>
+  <si>
+    <t>NƯỚC CỐT CHANH ( 659GRAM/CHAI )</t>
+  </si>
+  <si>
+    <t>850ML</t>
+  </si>
+  <si>
+    <t>ÉP THƠM (875.5GRAM/CHAI)</t>
   </si>
 </sst>
 </file>
@@ -483,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -541,6 +559,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C33" si="0">"{""name"":""" &amp; A2 &amp; """,""originUnit"":""" &amp; B2 &amp; """}"</f>
@@ -1018,10 +1042,10 @@
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1030,10 +1054,10 @@
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1078,7 +1102,7 @@
     </row>
     <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>17</v>
@@ -1174,7 +1198,7 @@
     </row>
     <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>17</v>
@@ -1186,7 +1210,7 @@
     </row>
     <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>17</v>
@@ -1198,7 +1222,7 @@
     </row>
     <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>17</v>
@@ -1210,7 +1234,7 @@
     </row>
     <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>17</v>
@@ -1222,7 +1246,7 @@
     </row>
     <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>17</v>
@@ -1234,7 +1258,7 @@
     </row>
     <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>17</v>
@@ -1246,10 +1270,10 @@
     </row>
     <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -1258,7 +1282,7 @@
     </row>
     <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>17</v>
@@ -1270,10 +1294,10 @@
     </row>
     <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
@@ -1282,7 +1306,7 @@
     </row>
     <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>19</v>
@@ -1294,10 +1318,10 @@
     </row>
     <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
@@ -1306,10 +1330,10 @@
     </row>
     <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
@@ -1318,10 +1342,10 @@
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
@@ -1330,10 +1354,10 @@
     </row>
     <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
@@ -1342,7 +1366,7 @@
     </row>
     <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>17</v>
@@ -1354,7 +1378,7 @@
     </row>
     <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>17</v>
@@ -1366,7 +1390,7 @@
     </row>
     <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>17</v>
@@ -1378,7 +1402,7 @@
     </row>
     <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>17</v>
@@ -1390,10 +1414,10 @@
     </row>
     <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
@@ -1402,7 +1426,7 @@
     </row>
     <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>17</v>
@@ -1414,7 +1438,7 @@
     </row>
     <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>17</v>
@@ -1426,10 +1450,10 @@
     </row>
     <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
@@ -1438,10 +1462,10 @@
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
@@ -1450,10 +1474,10 @@
     </row>
     <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
@@ -1470,10 +1494,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,11 +1505,12 @@
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,8 +1520,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1506,16 +1532,17 @@
       <c r="C2" s="4">
         <v>180000</v>
       </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D33" si="0">"{""inventoryName"":""" &amp; A2 &amp; """,""originUnit"":""" &amp; B2 &amp; """,""originPrice"":" &amp; C2 &amp; "}"</f>
+      <c r="D2" s="21"/>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E33" si="0">"{""inventoryName"":""" &amp; A2 &amp; """,""originUnit"":""" &amp; B2 &amp; """,""originPrice"":" &amp; C2 &amp; "}"</f>
         <v>{"inventoryName":"CÀ PHÊ ĐEN","originUnit":"1000 GRAM/BỊCH","originPrice":180000}</v>
       </c>
-      <c r="E2" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE, D2:D99) &amp; "]"</f>
-        <v>[{"inventoryName":"CÀ PHÊ ĐEN","originUnit":"1000 GRAM/BỊCH","originPrice":180000},{"inventoryName":"SỮA ĐẶC","originUnit":"1250 GRAM/HỘP","originPrice":60000},{"inventoryName":"NƯỚC CỐT DỪA","originUnit":"400 GRAM/LON","originPrice":24000},{"inventoryName":"BỘT CACAO","originUnit":"500 GRAM/BỊCH","originPrice":105000},{"inventoryName":"VỤN DỪA","originUnit":"500 GRAM/BỊCH","originPrice":62000},{"inventoryName":"KEM MUỐI","originUnit":"310 GRAM/HỦ","originPrice":50000},{"inventoryName":"ĐƯỜNG GÓI ","originUnit":"400 GÓI","originPrice":370},{"inventoryName":"ĐƯỜNG CÁT","originUnit":"GRAM","originPrice":22000},{"inventoryName":"CHAI CÀ PHÊ (thành phẩm)","originUnit":"CHAI","originPrice":45000},{"inventoryName":"SỮA TƯƠI","originUnit":"950 GRAM/HỘP","originPrice":34000},{"inventoryName":"KEM BẮP","originUnit":"500 GRAM/ HỦ ","originPrice":136000},{"inventoryName":"BẮP RANG BƠ","originUnit":"1 CHAI ","originPrice":55000},{"inventoryName":"TRÀ TÚI ","originUnit":"10 TÚI/ GÓI","originPrice":3000},{"inventoryName":"THẢO MỘC","originUnit":"10 TÚI/ GÓI","originPrice":7000},{"inventoryName":"LÁ DỨA","originUnit":"1000 GRAM","originPrice":25000},{"inventoryName":"TRÀ XANH LÀI ( 500GRAM/BỊCH)","originUnit":"GRAM","originPrice":74000},{"inventoryName":"MỨT TẮC ( 900GRAM/HỦ)","originUnit":"GRAM","originPrice":60000},{"inventoryName":"TẮC","originUnit":"GRAM","originPrice":25000},{"inventoryName":"CHANH TƯƠI","originUnit":"GRAM","originPrice":33000},{"inventoryName":"CHANH DÂY","originUnit":"GRAM","originPrice":33000},{"inventoryName":"KẸO ME ( 500GRAM/ TÚI)","originUnit":"GRAM","originPrice":70000},{"inventoryName":"MUỐI ỚT","originUnit":"250 GRAM/ GÓI","originPrice":15000},{"inventoryName":"ÉP THƠM (850ML/CHAI)","originUnit":"GRAM","originPrice":130000},{"inventoryName":"SYRUP ME (CHAI 1,1 LÍT)","originUnit":"GRAM","originPrice":99000},{"inventoryName":"SYRUP TẮC XÍ MUỘI","originUnit":"GRAM","originPrice":99000},{"inventoryName":"SYRUP CHANH DÂY (680GRAM/CHAI)","originUnit":"GRAM","originPrice":45000},{"inventoryName":"NƯỚC CỐT TẮC (650ML/CHAI)","originUnit":"GRAM","originPrice":50000},{"inventoryName":"SYRUP ĐƯỜNG ( 26000GRAM/ THÙNG)","originUnit":"GRAM","originPrice":25},{"inventoryName":"ĐÁC THƠM (1,7KG/BỊCH)","originUnit":"GRAM","originPrice":170000},{"inventoryName":"SỮA CHUA","originUnit":"HỦ","originPrice":11000},{"inventoryName":"NƯỚC CỐT CHANH ( 640ML/CHAI )","originUnit":"GRAM","originPrice":50000},{"inventoryName":"ĐÁ","originUnit":"BAO","originPrice":17000}]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(",", TRUE, E2:E99) &amp; "]"</f>
+        <v>[{"inventoryName":"CÀ PHÊ ĐEN","originUnit":"1000 GRAM/BỊCH","originPrice":180000},{"inventoryName":"SỮA ĐẶC","originUnit":"1250 GRAM/HỘP","originPrice":60000},{"inventoryName":"NƯỚC CỐT DỪA","originUnit":"400 GRAM/LON","originPrice":24000},{"inventoryName":"BỘT CACAO","originUnit":"500 GRAM/BỊCH","originPrice":105000},{"inventoryName":"VỤN DỪA","originUnit":"500 GRAM/BỊCH","originPrice":62000},{"inventoryName":"KEM MUỐI","originUnit":"310 GRAM/HỦ","originPrice":50000},{"inventoryName":"ĐƯỜNG GÓI ","originUnit":"400 GÓI","originPrice":370},{"inventoryName":"ĐƯỜNG CÁT","originUnit":"GRAM","originPrice":22000},{"inventoryName":"CHAI CÀ PHÊ (thành phẩm)","originUnit":"CHAI","originPrice":45000},{"inventoryName":"SỮA TƯƠI","originUnit":"950 GRAM/HỘP","originPrice":34000},{"inventoryName":"KEM BẮP","originUnit":"500 GRAM/ HỦ ","originPrice":136000},{"inventoryName":"BẮP RANG BƠ","originUnit":"1 CHAI ","originPrice":55000},{"inventoryName":"TRÀ TÚI ","originUnit":"10 TÚI/ GÓI","originPrice":3000},{"inventoryName":"THẢO MỘC","originUnit":"10 TÚI/ GÓI","originPrice":7000},{"inventoryName":"LÁ DỨA","originUnit":"1000 GRAM","originPrice":25000},{"inventoryName":"TRÀ XANH LÀI ( 500GRAM/BỊCH)","originUnit":"GRAM","originPrice":74000},{"inventoryName":"MỨT TẮC ( 900GRAM/HỦ)","originUnit":"GRAM","originPrice":60000},{"inventoryName":"TẮC","originUnit":"GRAM","originPrice":25000},{"inventoryName":"CHANH TƯƠI","originUnit":"GRAM","originPrice":33000},{"inventoryName":"CHANH DÂY","originUnit":"GRAM","originPrice":33000},{"inventoryName":"KẸO ME ( 500GRAM/ TÚI)","originUnit":"GRAM","originPrice":70000},{"inventoryName":"MUỐI ỚT","originUnit":"250 GRAM/ GÓI","originPrice":15000},{"inventoryName":"ÉP THƠM (875.5GRAM/CHAI)","originUnit":"GRAM","originPrice":130000},{"inventoryName":"SYRUP ME (1400GRAM/CHAI)","originUnit":"GRAM","originPrice":99000},{"inventoryName":"SYRUP TẮC XÍ MUỘI","originUnit":"GRAM","originPrice":99000},{"inventoryName":"SYRUP CHANH DÂY (680GRAM/CHAI)","originUnit":"GRAM","originPrice":45000},{"inventoryName":"NƯỚC CỐT TẮC (669.5GRAM/CHAI)","originUnit":"GRAM","originPrice":50000},{"inventoryName":"SYRUP ĐƯỜNG ( 26000GRAM/ THÙNG)","originUnit":"GRAM","originPrice":25},{"inventoryName":"ĐÁC THƠM (1,7KG/BỊCH)","originUnit":"GRAM","originPrice":170000},{"inventoryName":"SỮA CHUA","originUnit":"HỦ","originPrice":11000},{"inventoryName":"NƯỚC CỐT CHANH ( 659GRAM/CHAI )","originUnit":"GRAM","originPrice":50000},{"inventoryName":"ĐÁ","originUnit":"BAO","originPrice":17000}]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1525,12 +1552,13 @@
       <c r="C3" s="4">
         <v>60000</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="21"/>
+      <c r="E3" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"SỮA ĐẶC","originUnit":"1250 GRAM/HỘP","originPrice":60000}</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1540,12 +1568,13 @@
       <c r="C4" s="4">
         <v>24000</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="21"/>
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"NƯỚC CỐT DỪA","originUnit":"400 GRAM/LON","originPrice":24000}</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1555,12 +1584,13 @@
       <c r="C5" s="4">
         <v>105000</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="21"/>
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"BỘT CACAO","originUnit":"500 GRAM/BỊCH","originPrice":105000}</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1570,12 +1600,13 @@
       <c r="C6" s="4">
         <v>62000</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="21"/>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"VỤN DỪA","originUnit":"500 GRAM/BỊCH","originPrice":62000}</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1585,12 +1616,13 @@
       <c r="C7" s="4">
         <v>50000</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="21"/>
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"KEM MUỐI","originUnit":"310 GRAM/HỦ","originPrice":50000}</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1600,12 +1632,13 @@
       <c r="C8" s="4">
         <v>370</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="21"/>
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"ĐƯỜNG GÓI ","originUnit":"400 GÓI","originPrice":370}</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1615,12 +1648,13 @@
       <c r="C9" s="4">
         <v>22000</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="21"/>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"ĐƯỜNG CÁT","originUnit":"GRAM","originPrice":22000}</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1630,12 +1664,13 @@
       <c r="C10" s="4">
         <v>45000</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="21"/>
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"CHAI CÀ PHÊ (thành phẩm)","originUnit":"CHAI","originPrice":45000}</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1645,12 +1680,13 @@
       <c r="C11" s="4">
         <v>34000</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="21"/>
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"SỮA TƯƠI","originUnit":"950 GRAM/HỘP","originPrice":34000}</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1660,12 +1696,13 @@
       <c r="C12" s="4">
         <v>136000</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="21"/>
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"KEM BẮP","originUnit":"500 GRAM/ HỦ ","originPrice":136000}</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1675,12 +1712,13 @@
       <c r="C13" s="4">
         <v>55000</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="21"/>
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"BẮP RANG BƠ","originUnit":"1 CHAI ","originPrice":55000}</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1690,12 +1728,13 @@
       <c r="C14" s="4">
         <v>3000</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="21"/>
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"TRÀ TÚI ","originUnit":"10 TÚI/ GÓI","originPrice":3000}</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1705,12 +1744,13 @@
       <c r="C15" s="4">
         <v>7000</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="21"/>
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"THẢO MỘC","originUnit":"10 TÚI/ GÓI","originPrice":7000}</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1720,14 +1760,15 @@
       <c r="C16" s="4">
         <v>25000</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="21"/>
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"LÁ DỨA","originUnit":"1000 GRAM","originPrice":25000}</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -1735,12 +1776,13 @@
       <c r="C17" s="4">
         <v>74000</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="21"/>
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"TRÀ XANH LÀI ( 500GRAM/BỊCH)","originUnit":"GRAM","originPrice":74000}</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1750,12 +1792,13 @@
       <c r="C18" s="4">
         <v>60000</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="21"/>
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"MỨT TẮC ( 900GRAM/HỦ)","originUnit":"GRAM","originPrice":60000}</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1765,12 +1808,13 @@
       <c r="C19" s="4">
         <v>25000</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="21"/>
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"TẮC","originUnit":"GRAM","originPrice":25000}</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1780,12 +1824,13 @@
       <c r="C20" s="4">
         <v>33000</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="21"/>
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"CHANH TƯƠI","originUnit":"GRAM","originPrice":33000}</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1795,12 +1840,13 @@
       <c r="C21" s="4">
         <v>33000</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="21"/>
+      <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"CHANH DÂY","originUnit":"GRAM","originPrice":33000}</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1810,12 +1856,13 @@
       <c r="C22" s="4">
         <v>70000</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="21"/>
+      <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"KẸO ME ( 500GRAM/ TÚI)","originUnit":"GRAM","originPrice":70000}</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1825,14 +1872,15 @@
       <c r="C23" s="4">
         <v>15000</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="21"/>
+      <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"MUỐI ỚT","originUnit":"250 GRAM/ GÓI","originPrice":15000}</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
@@ -1840,14 +1888,17 @@
       <c r="C24" s="4">
         <v>130000</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>{"inventoryName":"ÉP THƠM (850ML/CHAI)","originUnit":"GRAM","originPrice":130000}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>{"inventoryName":"ÉP THƠM (875.5GRAM/CHAI)","originUnit":"GRAM","originPrice":130000}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
@@ -1855,14 +1906,17 @@
       <c r="C25" s="4">
         <v>99000</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>{"inventoryName":"SYRUP ME (CHAI 1,1 LÍT)","originUnit":"GRAM","originPrice":99000}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"inventoryName":"SYRUP ME (1400GRAM/CHAI)","originUnit":"GRAM","originPrice":99000}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
@@ -1870,14 +1924,15 @@
       <c r="C26" s="4">
         <v>99000</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="21"/>
+      <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"SYRUP TẮC XÍ MUỘI","originUnit":"GRAM","originPrice":99000}</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
@@ -1885,14 +1940,15 @@
       <c r="C27" s="4">
         <v>45000</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="21"/>
+      <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"SYRUP CHANH DÂY (680GRAM/CHAI)","originUnit":"GRAM","originPrice":45000}</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
@@ -1900,14 +1956,17 @@
       <c r="C28" s="4">
         <v>50000</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>{"inventoryName":"NƯỚC CỐT TẮC (650ML/CHAI)","originUnit":"GRAM","originPrice":50000}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>{"inventoryName":"NƯỚC CỐT TẮC (669.5GRAM/CHAI)","originUnit":"GRAM","originPrice":50000}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
@@ -1915,14 +1974,15 @@
       <c r="C29" s="4">
         <v>25</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="21"/>
+      <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"SYRUP ĐƯỜNG ( 26000GRAM/ THÙNG)","originUnit":"GRAM","originPrice":25}</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>17</v>
@@ -1930,29 +1990,31 @@
       <c r="C30" s="4">
         <v>170000</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" s="21"/>
+      <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"ĐÁC THƠM (1,7KG/BỊCH)","originUnit":"GRAM","originPrice":170000}</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C31" s="4">
         <v>11000</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" s="21"/>
+      <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"SỮA CHUA","originUnit":"HỦ","originPrice":11000}</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>17</v>
@@ -1960,22 +2022,26 @@
       <c r="C32" s="4">
         <v>50000</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>{"inventoryName":"NƯỚC CỐT CHANH ( 640ML/CHAI )","originUnit":"GRAM","originPrice":50000}</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>{"inventoryName":"NƯỚC CỐT CHANH ( 659GRAM/CHAI )","originUnit":"GRAM","originPrice":50000}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C33" s="4">
         <v>17000</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" s="21"/>
+      <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>{"inventoryName":"ĐÁ","originUnit":"BAO","originPrice":17000}</v>
       </c>
